--- a/notes/spread.xlsx
+++ b/notes/spread.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="23500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,11 +282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083035160"/>
-        <c:axId val="2078385240"/>
+        <c:axId val="2071016840"/>
+        <c:axId val="2071013880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083035160"/>
+        <c:axId val="2071016840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,12 +295,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078385240"/>
+        <c:crossAx val="2071013880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078385240"/>
+        <c:axId val="2071013880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083035160"/>
+        <c:crossAx val="2071016840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -343,7 +344,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10814403881333"/>
+          <c:y val="0.126984126984127"/>
+          <c:w val="0.777537978207269"/>
+          <c:h val="0.695661792275965"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -530,11 +541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083118264"/>
-        <c:axId val="2081123480"/>
+        <c:axId val="2070989272"/>
+        <c:axId val="2070986248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083118264"/>
+        <c:axId val="2070989272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,12 +554,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081123480"/>
+        <c:crossAx val="2070986248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081123480"/>
+        <c:axId val="2070986248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083118264"/>
+        <c:crossAx val="2070989272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,11 +790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2077319080"/>
-        <c:axId val="2084393384"/>
+        <c:axId val="2070963496"/>
+        <c:axId val="2070960472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2077319080"/>
+        <c:axId val="2070963496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,12 +803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084393384"/>
+        <c:crossAx val="2070960472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084393384"/>
+        <c:axId val="2070960472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077319080"/>
+        <c:crossAx val="2070963496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1028,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082483928"/>
-        <c:axId val="2078988520"/>
+        <c:axId val="2073403464"/>
+        <c:axId val="2073406152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082483928"/>
+        <c:axId val="2073403464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,12 +1052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078988520"/>
+        <c:crossAx val="2073406152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078988520"/>
+        <c:axId val="2073406152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082483928"/>
+        <c:crossAx val="2073403464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1277,11 +1288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084262696"/>
-        <c:axId val="2081566600"/>
+        <c:axId val="2072336376"/>
+        <c:axId val="2072333352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084262696"/>
+        <c:axId val="2072336376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,12 +1301,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081566600"/>
+        <c:crossAx val="2072333352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081566600"/>
+        <c:axId val="2072333352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084262696"/>
+        <c:crossAx val="2072336376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,11 +1537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084958344"/>
-        <c:axId val="2081940136"/>
+        <c:axId val="2072310072"/>
+        <c:axId val="2072307048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084958344"/>
+        <c:axId val="2072310072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081940136"/>
+        <c:crossAx val="2072307048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081940136"/>
+        <c:axId val="2072307048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084958344"/>
+        <c:crossAx val="2072310072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1775,11 +1786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079891368"/>
-        <c:axId val="2079894184"/>
+        <c:axId val="2072283832"/>
+        <c:axId val="2072280808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079891368"/>
+        <c:axId val="2072283832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,12 +1799,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079894184"/>
+        <c:crossAx val="2072280808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2079894184"/>
+        <c:axId val="2072280808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079891368"/>
+        <c:crossAx val="2072283832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2024,11 +2035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082190808"/>
-        <c:axId val="2084303032"/>
+        <c:axId val="2072258024"/>
+        <c:axId val="2072255000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082190808"/>
+        <c:axId val="2072258024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,12 +2048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084303032"/>
+        <c:crossAx val="2072255000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084303032"/>
+        <c:axId val="2072255000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082190808"/>
+        <c:crossAx val="2072258024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2273,11 +2284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082632216"/>
-        <c:axId val="2080256856"/>
+        <c:axId val="2072232216"/>
+        <c:axId val="2072229192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082632216"/>
+        <c:axId val="2072232216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,12 +2297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080256856"/>
+        <c:crossAx val="2072229192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080256856"/>
+        <c:axId val="2072229192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082632216"/>
+        <c:crossAx val="2072232216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2918,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
